--- a/data/Mitgliederliste-Reidlinger.xlsx
+++ b/data/Mitgliederliste-Reidlinger.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Josefsplatz 14</t>
   </si>
   <si>
-    <t>Irmgard</t>
-  </si>
-  <si>
     <t>office@ace-architekten.at</t>
   </si>
   <si>
@@ -129,20 +126,50 @@
     <t>Hr</t>
   </si>
   <si>
-    <t>Fr</t>
-  </si>
-  <si>
     <t>Egger</t>
   </si>
   <si>
     <t>Zählpunkt</t>
+  </si>
+  <si>
+    <t>AT27 3200 0000 1101 9379</t>
+  </si>
+  <si>
+    <t>Oppenauer</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Unterer Markt 5</t>
+  </si>
+  <si>
+    <t>tigerscafe@aon.at</t>
+  </si>
+  <si>
+    <t>0664 2246372</t>
+  </si>
+  <si>
+    <t>AT10 3250 1000 0243 5105</t>
+  </si>
+  <si>
+    <t>AT0020000000000000000000020350281</t>
+  </si>
+  <si>
+    <t>Claus</t>
+  </si>
+  <si>
+    <t>AT0020000000000000000000021149314</t>
+  </si>
+  <si>
+    <t>Rabatt-Cent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +211,12 @@
       <color theme="1"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -206,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -223,16 +256,23 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -245,6 +285,10 @@
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -269,9 +313,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -311,8 +352,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="WJ1" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -327,26 +368,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:N8" totalsRowShown="0">
-  <autoFilter ref="A3:N8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="A3:O13" totalsRowShown="0">
+  <autoFilter ref="A3:O13"/>
   <sortState ref="A2:M4">
     <sortCondition ref="A1:A4"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="lfd. Nummer" dataDxfId="6"/>
-    <tableColumn id="2" name="Folgezeile"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="lfd. Nummer" dataDxfId="1"/>
+    <tableColumn id="2" name="Folgezeile" dataDxfId="0"/>
     <tableColumn id="14" name="Anrede"/>
     <tableColumn id="3" name="Name"/>
     <tableColumn id="4" name="Vorname"/>
     <tableColumn id="5" name="Adresse"/>
     <tableColumn id="6" name="Stadt"/>
-    <tableColumn id="7" name="Postleitzahl" dataDxfId="5"/>
-    <tableColumn id="8" name="email" dataDxfId="4" dataCellStyle="Link"/>
-    <tableColumn id="9" name="Tel-Nr" dataDxfId="3"/>
+    <tableColumn id="7" name="Postleitzahl" dataDxfId="7"/>
+    <tableColumn id="8" name="email" dataDxfId="6" dataCellStyle="Link"/>
+    <tableColumn id="9" name="Tel-Nr" dataDxfId="5"/>
     <tableColumn id="10" name="Konto"/>
-    <tableColumn id="11" name="Zählpunkt" dataDxfId="2"/>
-    <tableColumn id="12" name="Rabatt" dataDxfId="0"/>
-    <tableColumn id="13" name="Rabatt-Zaehlernummer" dataDxfId="1"/>
+    <tableColumn id="11" name="Zählpunkt" dataDxfId="4"/>
+    <tableColumn id="12" name="Rabatt" dataDxfId="3"/>
+    <tableColumn id="13" name="Rabatt-Zaehlernummer" dataDxfId="2"/>
+    <tableColumn id="15" name="Rabatt-Cent"/>
   </tableColumns>
   <tableStyleInfo name="WJ1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,16 +658,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="13.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
@@ -638,27 +679,28 @@
     <col min="12" max="12" width="43.5546875" customWidth="1"/>
     <col min="13" max="13" width="11.77734375" style="9" customWidth="1"/>
     <col min="14" max="14" width="43.21875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -685,21 +727,24 @@
         <v>7</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -714,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>11</v>
@@ -729,12 +774,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2"/>
       <c r="I5" s="3"/>
@@ -746,103 +791,211 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="H10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="L10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="L12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="H13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="L8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N11" s="5"/>
+      <c r="I13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1"/>
+    <hyperlink ref="I9" r:id="rId1"/>
     <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="I7" r:id="rId3"/>
+    <hyperlink ref="I10" r:id="rId3"/>
+    <hyperlink ref="I13" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/Mitgliederliste-Reidlinger.xlsx
+++ b/data/Mitgliederliste-Reidlinger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="DieseArbeitsmappe" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21660" windowHeight="3420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14364" windowHeight="6468"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -257,24 +257,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -313,6 +307,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -374,20 +374,20 @@
     <sortCondition ref="A1:A4"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="lfd. Nummer" dataDxfId="1"/>
-    <tableColumn id="2" name="Folgezeile" dataDxfId="0"/>
+    <tableColumn id="1" name="lfd. Nummer" dataDxfId="7"/>
+    <tableColumn id="2" name="Folgezeile" dataDxfId="6"/>
     <tableColumn id="14" name="Anrede"/>
     <tableColumn id="3" name="Name"/>
     <tableColumn id="4" name="Vorname"/>
     <tableColumn id="5" name="Adresse"/>
     <tableColumn id="6" name="Stadt"/>
-    <tableColumn id="7" name="Postleitzahl" dataDxfId="7"/>
-    <tableColumn id="8" name="email" dataDxfId="6" dataCellStyle="Link"/>
-    <tableColumn id="9" name="Tel-Nr" dataDxfId="5"/>
+    <tableColumn id="7" name="Postleitzahl" dataDxfId="5"/>
+    <tableColumn id="8" name="email" dataDxfId="4" dataCellStyle="Link"/>
+    <tableColumn id="9" name="Tel-Nr" dataDxfId="3"/>
     <tableColumn id="10" name="Konto"/>
-    <tableColumn id="11" name="Zählpunkt" dataDxfId="4"/>
-    <tableColumn id="12" name="Rabatt" dataDxfId="3"/>
-    <tableColumn id="13" name="Rabatt-Zaehlernummer" dataDxfId="2"/>
+    <tableColumn id="11" name="Zählpunkt" dataDxfId="2"/>
+    <tableColumn id="12" name="Rabatt" dataDxfId="1"/>
+    <tableColumn id="13" name="Rabatt-Zaehlernummer" dataDxfId="0"/>
     <tableColumn id="15" name="Rabatt-Cent"/>
   </tableColumns>
   <tableStyleInfo name="WJ1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -660,8 +660,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,14 +683,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -795,7 +795,9 @@
       <c r="A6" s="2">
         <v>1.2</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="H6" s="8"/>
       <c r="I6" s="3"/>
@@ -805,7 +807,7 @@
       <c r="N6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <v>1</v>
       </c>
     </row>
@@ -813,7 +815,9 @@
       <c r="A7" s="2">
         <v>1.3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="3"/>
@@ -823,7 +827,7 @@
       <c r="N7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <v>1</v>
       </c>
     </row>
@@ -831,7 +835,9 @@
       <c r="A8" s="2">
         <v>1.4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="H8" s="8"/>
       <c r="I8" s="3"/>
@@ -841,7 +847,7 @@
       <c r="N8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -980,7 +986,7 @@
       <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L15" s="13"/>
+      <c r="L15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
